--- a/output/fit_clients/fit_round_256.xlsx
+++ b/output/fit_clients/fit_round_256.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1864142141.558624</v>
+        <v>2182115060.645376</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08130642338356552</v>
+        <v>0.07636746787719506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03748163568797998</v>
+        <v>0.04475576627433643</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>932071048.1199498</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2503075388.935648</v>
+        <v>2124607392.429348</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1683591173899248</v>
+        <v>0.158957557366523</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03555316989788588</v>
+        <v>0.04647599212863227</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1251537812.429498</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4801875530.082615</v>
+        <v>3895674041.003463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1138517416057214</v>
+        <v>0.127965622857598</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03075274502962716</v>
+        <v>0.03334344929391574</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>92</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2400937836.011862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2990968510.335255</v>
+        <v>3290541041.857333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08673421137904062</v>
+        <v>0.08310885923681965</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04852363088372176</v>
+        <v>0.04598213692462296</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1495484325.630872</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2398077241.148869</v>
+        <v>2573589520.407233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1316540932454822</v>
+        <v>0.1405588414088201</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03935973654137295</v>
+        <v>0.04055848316885883</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1199038607.082338</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2855979914.744824</v>
+        <v>3040273555.696588</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09922056612753324</v>
+        <v>0.07221876612112443</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0344693081007202</v>
+        <v>0.04507733099320264</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>80</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1427989936.109009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3344929535.799462</v>
+        <v>3704124470.594622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2179731650484523</v>
+        <v>0.1620946092834988</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02135043301263433</v>
+        <v>0.02670099644310851</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>81</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1672464860.672256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2261348289.138201</v>
+        <v>1891038832.955055</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1771432333541168</v>
+        <v>0.1845021562407827</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03066200069812447</v>
+        <v>0.03405852867198912</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1130674134.919052</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5946368676.885356</v>
+        <v>5063027321.496812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1444448379857616</v>
+        <v>0.2162919639480547</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0542845959642782</v>
+        <v>0.05247726728666741</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>108</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2973184511.025717</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4094904165.623026</v>
+        <v>3608739669.168922</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1440071280198919</v>
+        <v>0.1868217141844274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04254295602561779</v>
+        <v>0.04137552076640071</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>106</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2047452102.085332</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2052453197.157197</v>
+        <v>2178279663.800825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1748182899283382</v>
+        <v>0.1572288562600043</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04200556125211327</v>
+        <v>0.04796890629156429</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>86</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1026226529.817105</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3222068302.169012</v>
+        <v>3417618505.416398</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07938689065184308</v>
+        <v>0.101539114029558</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0248738122231186</v>
+        <v>0.02308520911794334</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>86</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1611034245.520289</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3604473044.372336</v>
+        <v>3376034824.289837</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1621873347826981</v>
+        <v>0.1672258360017075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04175163973832434</v>
+        <v>0.04222643449952241</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1802236512.851539</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1637893886.74897</v>
+        <v>1152257012.616265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08183811437333514</v>
+        <v>0.08584215328207068</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03933820874337063</v>
+        <v>0.04926589049373112</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>818947060.1322976</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1910664378.80496</v>
+        <v>1752657343.149551</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1112547424421498</v>
+        <v>0.1127982932070288</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04978784704608808</v>
+        <v>0.03715187087221346</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>955332272.8578249</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3666161444.923791</v>
+        <v>3765554366.105465</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1468877497959367</v>
+        <v>0.1615224257177197</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04032243366395938</v>
+        <v>0.0444710807871742</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1833080773.507596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3101990164.349503</v>
+        <v>2784352327.738732</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1342062215228124</v>
+        <v>0.126387440754846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02777922013685024</v>
+        <v>0.02538140390382981</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>84</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1550995105.005953</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>953742151.3764699</v>
+        <v>1157419521.127775</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1162315211883484</v>
+        <v>0.1806838461453911</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02478984682573275</v>
+        <v>0.02116773440984221</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>476871093.6501756</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2574225273.124214</v>
+        <v>2121696590.626314</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1059465533043701</v>
+        <v>0.1248956174983229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02986682479161887</v>
+        <v>0.02048518687338157</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1287112601.722236</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2713915634.291235</v>
+        <v>1872197132.221384</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08657712206619737</v>
+        <v>0.1022021436862336</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03248242854130554</v>
+        <v>0.03531756302595021</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1356957784.813696</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4014969008.268233</v>
+        <v>3856359783.83949</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1142240717033755</v>
+        <v>0.09854779807018156</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03962371739301671</v>
+        <v>0.04836891309885845</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2007484504.875357</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1125557387.156401</v>
+        <v>994633993.0037476</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1294339393319484</v>
+        <v>0.1445329891989469</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03682801864381265</v>
+        <v>0.04745096368808383</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>562778742.5980541</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3156000620.540214</v>
+        <v>2500834589.379045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09938823878479289</v>
+        <v>0.1233469379916701</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02515337667713606</v>
+        <v>0.02487588454483004</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1578000335.009269</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1253529342.661642</v>
+        <v>992062732.5717877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09010707264471188</v>
+        <v>0.08719868677957275</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03031989207249397</v>
+        <v>0.02190528599709028</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>626764676.9819988</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1320521881.852034</v>
+        <v>952948198.7601146</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08666523892527193</v>
+        <v>0.07898603820274536</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03641294699652081</v>
+        <v>0.03892367883475276</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>660260991.4346008</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3346689126.828749</v>
+        <v>4395843790.294095</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1362563846422596</v>
+        <v>0.1468227627677093</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01734422037375484</v>
+        <v>0.0211239891950191</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>60</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1673344606.036694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3020903241.442534</v>
+        <v>3655459302.66454</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1349103004418412</v>
+        <v>0.09854686564921677</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03147786136380146</v>
+        <v>0.04809801583719019</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1510451633.738795</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5601190885.197072</v>
+        <v>5366529121.598805</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1326870902473416</v>
+        <v>0.1243036897682332</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04368408354979365</v>
+        <v>0.04375041052885527</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>113</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2800595348.478837</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1787288091.504655</v>
+        <v>1457930791.477284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09641487505856237</v>
+        <v>0.1340269127638792</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02787258325692589</v>
+        <v>0.03564070729847178</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>893644058.9542422</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1226150786.809805</v>
+        <v>1297042035.680626</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0897564355751042</v>
+        <v>0.0937136760321774</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03281386997139906</v>
+        <v>0.03851986504190916</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>613075338.6976465</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1349079244.708973</v>
+        <v>1217790800.929433</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09580760675880576</v>
+        <v>0.1110119265233023</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02618798037381766</v>
+        <v>0.03406800125781505</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>674539659.4546769</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2855646260.044712</v>
+        <v>2346123314.666981</v>
       </c>
       <c r="F33" t="n">
-        <v>0.188900988852092</v>
+        <v>0.2001079885177859</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05230507423782827</v>
+        <v>0.03938958092643011</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1427823137.924028</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1246522743.011531</v>
+        <v>1567760152.070509</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08131889826763057</v>
+        <v>0.07758045768269506</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02523053502042845</v>
+        <v>0.023052146820514</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>623261368.9690577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1216747053.853263</v>
+        <v>1225989835.889296</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09544710679011907</v>
+        <v>0.108325281429878</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02897423916174757</v>
+        <v>0.04047160775823847</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>608373497.9870961</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2037868189.646865</v>
+        <v>2760521796.888235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1143720625771801</v>
+        <v>0.1175041575368583</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0262770571154091</v>
+        <v>0.01796457078402717</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1018934153.829857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2361178769.842264</v>
+        <v>1942212513.682201</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1051638737040298</v>
+        <v>0.1117985903620631</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03272004920619675</v>
+        <v>0.02974550669231395</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1180589461.91415</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1544020006.971044</v>
+        <v>1737379508.252998</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1168536714932879</v>
+        <v>0.1204445789208519</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0289239788590917</v>
+        <v>0.02796246804257759</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>772010046.5179874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1530203295.893422</v>
+        <v>1916877885.220283</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1667711117617509</v>
+        <v>0.1649730716671697</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03067851641790693</v>
+        <v>0.02558059141851681</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>765101713.7800529</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1120542400.39766</v>
+        <v>1496174315.520193</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1615060265151705</v>
+        <v>0.1054121970503652</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03742795675694696</v>
+        <v>0.04446499237674444</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>560271261.3540623</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2436782312.670832</v>
+        <v>2118136163.584164</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1251383676219016</v>
+        <v>0.1204190279580622</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03495823051203981</v>
+        <v>0.02879463998978144</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>61</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1218391187.797289</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4191569786.0197</v>
+        <v>4200937289.782262</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08958802773175933</v>
+        <v>0.09087859631645936</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03944502588399092</v>
+        <v>0.03674971359993801</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>90</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2095784935.456656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2890185818.462306</v>
+        <v>2230256283.122734</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1535019561828331</v>
+        <v>0.1644123427939246</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01871440209220591</v>
+        <v>0.02092441922421504</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>91</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1445092918.663359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1531122529.265037</v>
+        <v>1775908163.71926</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09033363067621494</v>
+        <v>0.09086449159317962</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02674536488190694</v>
+        <v>0.02885077744917438</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>765561277.4127572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2368443643.239204</v>
+        <v>2445015471.103122</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1183812898249474</v>
+        <v>0.1251216587373074</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05527707526400761</v>
+        <v>0.04573834669859954</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1184221849.650028</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5685853868.007119</v>
+        <v>4462913970.153165</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1129233626796342</v>
+        <v>0.1660333387117882</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0414682661053504</v>
+        <v>0.05826742780016112</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>91</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2842927000.062305</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3346174440.502342</v>
+        <v>5183376019.900569</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1551474325895066</v>
+        <v>0.1626981409705486</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04649045103721826</v>
+        <v>0.03688198772134363</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>69</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1673087182.325417</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2887984233.347457</v>
+        <v>3162298418.850382</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08379928834706642</v>
+        <v>0.09256922321172692</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02835674131325901</v>
+        <v>0.03359736611441565</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>84</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1443992215.651996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1425026452.747374</v>
+        <v>1564480994.424048</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1630221485447946</v>
+        <v>0.134224098163599</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02762673469197057</v>
+        <v>0.03138264409491679</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>712513270.0576779</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3832735134.940238</v>
+        <v>4099950797.514331</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1228411192741982</v>
+        <v>0.1627781136784418</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04486946110799341</v>
+        <v>0.04612662420936246</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>87</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1916367568.042732</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1243281820.75144</v>
+        <v>1513733923.684758</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1581586330753684</v>
+        <v>0.1651188742758354</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03715028055473126</v>
+        <v>0.03640685657228143</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621640954.9063528</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4964650312.104521</v>
+        <v>5142399699.61898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1278845585369215</v>
+        <v>0.1123480268314005</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0522523735990091</v>
+        <v>0.03849874726372819</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>105</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2482325155.746434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3471177016.688048</v>
+        <v>2474476879.354753</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1622051513015081</v>
+        <v>0.1444890350384865</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02316990207856288</v>
+        <v>0.02804222135666315</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>73</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1735588508.241007</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4121866119.164952</v>
+        <v>3772329446.365375</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1075149174654213</v>
+        <v>0.1171082050237762</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04514802566891105</v>
+        <v>0.04692649142460271</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2060933133.219009</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4945049953.015461</v>
+        <v>4469182409.420608</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1444776826674139</v>
+        <v>0.2121719816002511</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02261570658264786</v>
+        <v>0.03227607650726117</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2472524993.09984</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1722927520.671893</v>
+        <v>1836782847.996428</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1530500253267418</v>
+        <v>0.1602929424370768</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03795231910817627</v>
+        <v>0.05465184648720784</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>861463769.5740788</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3263833753.725175</v>
+        <v>3411832274.254907</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1455686057302168</v>
+        <v>0.1129775105261506</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02464190689254807</v>
+        <v>0.01811474468775483</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>81</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1631916903.415623</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1728985372.363068</v>
+        <v>1181590095.600982</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1904113448514886</v>
+        <v>0.1228933959019426</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02632326780112022</v>
+        <v>0.0379503535766294</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>864492696.4066036</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5229148947.852184</v>
+        <v>4720403952.685688</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0983106677160317</v>
+        <v>0.09945002162759788</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0415325083393789</v>
+        <v>0.04145868586111428</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2614574390.584818</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2479925643.509748</v>
+        <v>3106491600.139082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1706861271091009</v>
+        <v>0.1645175400049301</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0238354828259831</v>
+        <v>0.03277459061059734</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1239962837.545058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2775244284.610222</v>
+        <v>3079446582.551007</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1761904549260996</v>
+        <v>0.1728238170112808</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02408285211801652</v>
+        <v>0.03196826502051062</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1387622143.955507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1991576530.141498</v>
+        <v>2106711135.281203</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1683264915224272</v>
+        <v>0.1296659365983768</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04356992299028551</v>
+        <v>0.0491097123867542</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>995788321.8399614</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3438910298.65776</v>
+        <v>4463947951.273717</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1040339477154782</v>
+        <v>0.08220275481179995</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0376906973815802</v>
+        <v>0.02895244891984297</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1719455236.729949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5182259279.438872</v>
+        <v>4600765133.331723</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1825506108889231</v>
+        <v>0.1528473425328526</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02233062471965393</v>
+        <v>0.02313457265584937</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>79</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2591129758.729514</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3952390080.261471</v>
+        <v>5839136785.517593</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1236699209945987</v>
+        <v>0.1253266475586991</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02350188959011869</v>
+        <v>0.02401730992718855</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>92</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1976195061.550118</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3709926260.909138</v>
+        <v>5722780503.571269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1291514812188022</v>
+        <v>0.1396262099813445</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0398339161333913</v>
+        <v>0.04205399424199477</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>74</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1854963088.458656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3114941524.19639</v>
+        <v>2985966692.17517</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07535088394127086</v>
+        <v>0.06854639660176322</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04363473215927745</v>
+        <v>0.04544861648526398</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1557470770.593524</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4378886711.258085</v>
+        <v>3763067072.410483</v>
       </c>
       <c r="F68" t="n">
-        <v>0.130113454973912</v>
+        <v>0.1298302162021072</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03520848856776469</v>
+        <v>0.05089792501863824</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>85</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2189443374.371906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2086165764.071624</v>
+        <v>1790351589.229846</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1780871683229392</v>
+        <v>0.1566418178898704</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05150734720929569</v>
+        <v>0.03911303927505346</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1043082898.110879</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2306635514.455418</v>
+        <v>2415398183.666742</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06529263135258183</v>
+        <v>0.06779837690838721</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04400901858089171</v>
+        <v>0.04273663048447535</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>73</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1153317689.095942</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3481082494.948861</v>
+        <v>3714942764.702957</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1209188868067317</v>
+        <v>0.1624102411118997</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03325892914949178</v>
+        <v>0.03151346740524365</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>94</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1740541239.776888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1980943176.396974</v>
+        <v>1680287571.738711</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09136396789004517</v>
+        <v>0.08192654264551469</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03359099183107116</v>
+        <v>0.04045603929185716</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>990471537.6291558</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2469214485.843964</v>
+        <v>3011487913.662261</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09379699816614595</v>
+        <v>0.09066968640911006</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05228997819328965</v>
+        <v>0.03550992692808243</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>97</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1234607287.486877</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3142977315.259029</v>
+        <v>3060281647.371345</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1787483760393118</v>
+        <v>0.1547433856276844</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03479012164134993</v>
+        <v>0.02823760178404923</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>87</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1571488710.657696</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1705729835.297769</v>
+        <v>2017274224.628658</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1023639584978223</v>
+        <v>0.1536355946696208</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03799931895146805</v>
+        <v>0.0370042715620716</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>852864909.3661186</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3358879250.99924</v>
+        <v>4016116696.234221</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1008767146134122</v>
+        <v>0.1194618467837625</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03163530193858526</v>
+        <v>0.02473299125509925</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1679439583.329084</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1548687781.950594</v>
+        <v>2222080080.945341</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1401953472073525</v>
+        <v>0.1332375627021232</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02938233686035807</v>
+        <v>0.02344465483228361</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>774343885.8196058</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3311543746.203927</v>
+        <v>3089787496.718012</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1209115225204977</v>
+        <v>0.09513820940400712</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03771668460576702</v>
+        <v>0.05320071472925147</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1655771888.067926</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1619887273.335974</v>
+        <v>1691207039.101365</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1741928148560818</v>
+        <v>0.1600457950735173</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0259564810293665</v>
+        <v>0.04047298623306832</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>809943691.8362225</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4869742351.317483</v>
+        <v>4314977123.865589</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07536493677961861</v>
+        <v>0.06792028926657269</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03223187154800414</v>
+        <v>0.02381496581505149</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2434871218.378454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4523154604.799183</v>
+        <v>4282587877.35978</v>
       </c>
       <c r="F81" t="n">
-        <v>0.118353817942556</v>
+        <v>0.1185066035294986</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02402466871678818</v>
+        <v>0.02965028461479706</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2261577285.006834</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5185059808.31369</v>
+        <v>5134408188.12713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1626789973412791</v>
+        <v>0.2021011464782098</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02554043533961473</v>
+        <v>0.02434824959301561</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2592529877.78006</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2070621170.154609</v>
+        <v>1876062565.234003</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09770953015319933</v>
+        <v>0.1334937542213033</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03747569616971576</v>
+        <v>0.03991539925577276</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1035310579.203546</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2302015324.722512</v>
+        <v>1921556276.69487</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08788877012048249</v>
+        <v>0.07300149187007417</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03802554861708725</v>
+        <v>0.03534637023510216</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1151007623.138459</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3351632748.21273</v>
+        <v>3570288287.855975</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1142981589213274</v>
+        <v>0.1468100255863929</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03462476619152487</v>
+        <v>0.047612210077594</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>96</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1675816473.056121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2147409364.837192</v>
+        <v>2310224368.251258</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1679754352151548</v>
+        <v>0.1178590472527905</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01712072466769756</v>
+        <v>0.02394458040284706</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1073704730.547215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083403248.521082</v>
+        <v>1034954047.819984</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1815571199786624</v>
+        <v>0.1783349391850033</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03759128706313718</v>
+        <v>0.03013901765542615</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>541701649.9689642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2835291357.820099</v>
+        <v>3685518397.62987</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1269099479522057</v>
+        <v>0.1101320728729702</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02648467430393864</v>
+        <v>0.03458032649658629</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>101</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1417645693.07227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2553350608.23181</v>
+        <v>3417296296.048712</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1287685221458465</v>
+        <v>0.147656276849389</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02799736293663412</v>
+        <v>0.03051270467903939</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>88</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1276675374.960477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1317606175.314738</v>
+        <v>1362881344.309674</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09287581745274398</v>
+        <v>0.1026781542816737</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05531018941932402</v>
+        <v>0.04445757593468577</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>658803032.9737341</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1422601209.384714</v>
+        <v>1400232555.332175</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1778636333142727</v>
+        <v>0.1888641929071005</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05401009114447409</v>
+        <v>0.04153871116608144</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>711300653.9393294</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2418368666.391714</v>
+        <v>2657293843.099239</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09195556812685907</v>
+        <v>0.1059506419730566</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04579796213765137</v>
+        <v>0.04595959538588005</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1209184310.954615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3984634327.995508</v>
+        <v>3931241014.077412</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1043572731452724</v>
+        <v>0.09132817894574605</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0365692153982948</v>
+        <v>0.05331492411748136</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1992317165.602599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1830601299.628072</v>
+        <v>1793655254.424194</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030047236390903</v>
+        <v>0.1414929531936173</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03829343133646284</v>
+        <v>0.03596251308259128</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>915300626.0930738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3207787815.691816</v>
+        <v>2129950901.779517</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1303202793081087</v>
+        <v>0.1212074783759778</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03708864538856929</v>
+        <v>0.04946666381588712</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1603893892.480017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1946246561.191854</v>
+        <v>1850981062.930324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1287672349087503</v>
+        <v>0.1254856049282651</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03537771810460979</v>
+        <v>0.04597610902518359</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>973123273.2996012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4803383806.096584</v>
+        <v>3473898023.398901</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1365004336531002</v>
+        <v>0.1437442741163873</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02742074305685955</v>
+        <v>0.01994474049521628</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>82</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2401692024.028111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3925153179.625367</v>
+        <v>2409501146.361977</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0923952691385059</v>
+        <v>0.1037845375915325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02531706009882489</v>
+        <v>0.02094667222193976</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>68</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1962576637.238465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2150733621.827505</v>
+        <v>2975526141.498098</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1479278035342546</v>
+        <v>0.09215260710948597</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03379882270504665</v>
+        <v>0.03179791563287913</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>80</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1075366735.301641</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3263016908.335305</v>
+        <v>4241188888.127597</v>
       </c>
       <c r="F100" t="n">
-        <v>0.113509296288892</v>
+        <v>0.1742300251744896</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01748989813862048</v>
+        <v>0.01903986830269691</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1631508466.003908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2230286207.672769</v>
+        <v>2973562700.636889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1932315345498563</v>
+        <v>0.1364311302561331</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05289708981577827</v>
+        <v>0.05040628854095205</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>103</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1115143091.172374</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_256.xlsx
+++ b/output/fit_clients/fit_round_256.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2182115060.645376</v>
+        <v>1523197439.850109</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07636746787719506</v>
+        <v>0.1006381345737618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04475576627433643</v>
+        <v>0.04034227053719133</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2124607392.429348</v>
+        <v>1976982910.823274</v>
       </c>
       <c r="F3" t="n">
-        <v>0.158957557366523</v>
+        <v>0.1197166503445474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04647599212863227</v>
+        <v>0.03976923173427888</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3895674041.003463</v>
+        <v>3247781638.206911</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127965622857598</v>
+        <v>0.151733971506841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03334344929391574</v>
+        <v>0.02786691313553861</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3290541041.857333</v>
+        <v>3203541245.968579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08310885923681965</v>
+        <v>0.08255500626203732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04598213692462296</v>
+        <v>0.03939426207000377</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2573589520.407233</v>
+        <v>1960761539.168836</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1405588414088201</v>
+        <v>0.1056129510307994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04055848316885883</v>
+        <v>0.03699477061567532</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3040273555.696588</v>
+        <v>2274771856.750684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07221876612112443</v>
+        <v>0.08587184191069394</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04507733099320264</v>
+        <v>0.04273984797989896</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3704124470.594622</v>
+        <v>3756938597.198489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1620946092834988</v>
+        <v>0.1906568589140722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02670099644310851</v>
+        <v>0.02627402787308397</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1891038832.955055</v>
+        <v>1571589729.359965</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1845021562407827</v>
+        <v>0.1430622721354736</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03405852867198912</v>
+        <v>0.03018820601057974</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5063027321.496812</v>
+        <v>5924800584.259225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2162919639480547</v>
+        <v>0.2093484497946038</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05247726728666741</v>
+        <v>0.04554112508290879</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3608739669.168922</v>
+        <v>3021443959.579718</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1868217141844274</v>
+        <v>0.1223186937980732</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04137552076640071</v>
+        <v>0.04135898812136826</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2178279663.800825</v>
+        <v>2945355784.513993</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1572288562600043</v>
+        <v>0.1470990512149006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04796890629156429</v>
+        <v>0.04557885191189971</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3417618505.416398</v>
+        <v>4248373999.95732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.101539114029558</v>
+        <v>0.08964806043735213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02308520911794334</v>
+        <v>0.02516723707229366</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3376034824.289837</v>
+        <v>3329041602.066151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1672258360017075</v>
+        <v>0.1332686170098419</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04222643449952241</v>
+        <v>0.0389930635291731</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1152257012.616265</v>
+        <v>1295606510.515185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08584215328207068</v>
+        <v>0.08028021091329481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04926589049373112</v>
+        <v>0.04594326203527265</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1752657343.149551</v>
+        <v>2303497838.768498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1127982932070288</v>
+        <v>0.07052860583436742</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03715187087221346</v>
+        <v>0.04275013993201768</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3765554366.105465</v>
+        <v>4807569086.320544</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1615224257177197</v>
+        <v>0.1640802681702857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0444710807871742</v>
+        <v>0.04545723543081539</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2784352327.738732</v>
+        <v>3184524870.501519</v>
       </c>
       <c r="F18" t="n">
-        <v>0.126387440754846</v>
+        <v>0.1119411887599365</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02538140390382981</v>
+        <v>0.02634766221396366</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1157419521.127775</v>
+        <v>829785096.1868325</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1806838461453911</v>
+        <v>0.1442711037509487</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02116773440984221</v>
+        <v>0.02497300179774571</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2121696590.626314</v>
+        <v>2682702433.573941</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1248956174983229</v>
+        <v>0.1613015674939706</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02048518687338157</v>
+        <v>0.02656332463517898</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1872197132.221384</v>
+        <v>2296602456.939267</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1022021436862336</v>
+        <v>0.09060652247752336</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03531756302595021</v>
+        <v>0.03018674681241568</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3856359783.83949</v>
+        <v>2988791961.698089</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09854779807018156</v>
+        <v>0.0941032917794148</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04836891309885845</v>
+        <v>0.04579769729866178</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>994633993.0037476</v>
+        <v>1365511169.583275</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445329891989469</v>
+        <v>0.1334856532263212</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04745096368808383</v>
+        <v>0.0492536252264455</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2500834589.379045</v>
+        <v>3057640201.196944</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1233469379916701</v>
+        <v>0.1085223729372329</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02487588454483004</v>
+        <v>0.02649736367697604</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>992062732.5717877</v>
+        <v>1078084448.533837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08719868677957275</v>
+        <v>0.09734351672389001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02190528599709028</v>
+        <v>0.02563773125167542</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952948198.7601146</v>
+        <v>1417803888.243664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07898603820274536</v>
+        <v>0.1039348805919313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03892367883475276</v>
+        <v>0.03869699216897541</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4395843790.294095</v>
+        <v>3608142956.322949</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1468227627677093</v>
+        <v>0.1537644416440143</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0211239891950191</v>
+        <v>0.02115963306556937</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3655459302.66454</v>
+        <v>3438738350.763803</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09854686564921677</v>
+        <v>0.1160146871211791</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04809801583719019</v>
+        <v>0.03694194400242056</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5366529121.598805</v>
+        <v>4501470295.027761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1243036897682332</v>
+        <v>0.09259593631873812</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04375041052885527</v>
+        <v>0.03467387134171371</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1457930791.477284</v>
+        <v>2305286933.555928</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1340269127638792</v>
+        <v>0.08719877265076822</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03564070729847178</v>
+        <v>0.02865901468179956</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1297042035.680626</v>
+        <v>1055647075.570942</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0937136760321774</v>
+        <v>0.08587473967237358</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03851986504190916</v>
+        <v>0.05218157421467694</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1217790800.929433</v>
+        <v>1721896591.434604</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1110119265233023</v>
+        <v>0.1194767587221402</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03406800125781505</v>
+        <v>0.02590340825550307</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2346123314.666981</v>
+        <v>2104136824.694905</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2001079885177859</v>
+        <v>0.1330905614726275</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03938958092643011</v>
+        <v>0.06025442952152626</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1567760152.070509</v>
+        <v>1420572435.916016</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07758045768269506</v>
+        <v>0.07452212655843102</v>
       </c>
       <c r="G34" t="n">
-        <v>0.023052146820514</v>
+        <v>0.02062051438901534</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1225989835.889296</v>
+        <v>1304860417.62843</v>
       </c>
       <c r="F35" t="n">
-        <v>0.108325281429878</v>
+        <v>0.1001219935048718</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04047160775823847</v>
+        <v>0.03568195482704484</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2760521796.888235</v>
+        <v>2330624962.983047</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1175041575368583</v>
+        <v>0.1413388722903848</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01796457078402717</v>
+        <v>0.02397963041485694</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1942212513.682201</v>
+        <v>1880654891.884957</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1117985903620631</v>
+        <v>0.1027609423587002</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02974550669231395</v>
+        <v>0.03558974102248541</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1737379508.252998</v>
+        <v>2113899021.930836</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1204445789208519</v>
+        <v>0.08465563211859468</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02796246804257759</v>
+        <v>0.03968768099239835</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1916877885.220283</v>
+        <v>1463711622.450948</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649730716671697</v>
+        <v>0.1839970135545626</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02558059141851681</v>
+        <v>0.03095160109797636</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1496174315.520193</v>
+        <v>1100734739.023766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1054121970503652</v>
+        <v>0.1374375070514612</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04446499237674444</v>
+        <v>0.05970249809695339</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2118136163.584164</v>
+        <v>2268075554.994244</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1204190279580622</v>
+        <v>0.1167748669639226</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02879463998978144</v>
+        <v>0.0288026749722083</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4200937289.782262</v>
+        <v>4357386771.151567</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09087859631645936</v>
+        <v>0.1270089798382271</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03674971359993801</v>
+        <v>0.04191454303821491</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2230256283.122734</v>
+        <v>2751597722.549038</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1644123427939246</v>
+        <v>0.1772940242076022</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02092441922421504</v>
+        <v>0.02589306493753951</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1775908163.71926</v>
+        <v>2040153143.463242</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09086449159317962</v>
+        <v>0.1007290021105668</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02885077744917438</v>
+        <v>0.03124637042411954</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2445015471.103122</v>
+        <v>2328003469.091493</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1251216587373074</v>
+        <v>0.1879497473744924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04573834669859954</v>
+        <v>0.0513392687119959</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4462913970.153165</v>
+        <v>5084212111.580399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1660333387117882</v>
+        <v>0.1536124348070499</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05826742780016112</v>
+        <v>0.05906917098607933</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5183376019.900569</v>
+        <v>4272337757.189909</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1626981409705486</v>
+        <v>0.1822049186372484</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03688198772134363</v>
+        <v>0.03765812813666206</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3162298418.850382</v>
+        <v>3505913483.916797</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09256922321172692</v>
+        <v>0.0852653665494869</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03359736611441565</v>
+        <v>0.03177263624422726</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1564480994.424048</v>
+        <v>1696021753.179983</v>
       </c>
       <c r="F49" t="n">
-        <v>0.134224098163599</v>
+        <v>0.1824838018018513</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03138264409491679</v>
+        <v>0.02700454829206609</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4099950797.514331</v>
+        <v>3712520861.848805</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1627781136784418</v>
+        <v>0.1605696654386587</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04612662420936246</v>
+        <v>0.04482024844536835</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1513733923.684758</v>
+        <v>1500363248.565929</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1651188742758354</v>
+        <v>0.1915849161340653</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03640685657228143</v>
+        <v>0.03399505367353742</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5142399699.61898</v>
+        <v>3703474275.15071</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1123480268314005</v>
+        <v>0.116033150036713</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03849874726372819</v>
+        <v>0.03879789536050806</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2474476879.354753</v>
+        <v>3282364664.173079</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1444890350384865</v>
+        <v>0.1309655996302508</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02804222135666315</v>
+        <v>0.02493575682729246</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3772329446.365375</v>
+        <v>3461260735.255618</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1171082050237762</v>
+        <v>0.1090333739187608</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04692649142460271</v>
+        <v>0.04420607716579687</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4469182409.420608</v>
+        <v>3181463469.832054</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2121719816002511</v>
+        <v>0.1744073789846519</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03227607650726117</v>
+        <v>0.02015067654295871</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1836782847.996428</v>
+        <v>1522513358.17668</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1602929424370768</v>
+        <v>0.1099777335944089</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05465184648720784</v>
+        <v>0.0563184856690359</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3411832274.254907</v>
+        <v>4289589678.781207</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1129775105261506</v>
+        <v>0.1477429310834046</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01811474468775483</v>
+        <v>0.02509829583847746</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1181590095.600982</v>
+        <v>1775440300.694541</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1228933959019426</v>
+        <v>0.1432810008158331</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0379503535766294</v>
+        <v>0.033183237333694</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4720403952.685688</v>
+        <v>4602123476.756734</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09945002162759788</v>
+        <v>0.08007453314654747</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04145868586111428</v>
+        <v>0.03697622772924893</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3106491600.139082</v>
+        <v>3705535221.822563</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1645175400049301</v>
+        <v>0.1251470094801487</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03277459061059734</v>
+        <v>0.03119489922507539</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3079446582.551007</v>
+        <v>2504464713.075933</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1728238170112808</v>
+        <v>0.1108977551867613</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03196826502051062</v>
+        <v>0.02633429114260144</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2106711135.281203</v>
+        <v>1358207762.325999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1296659365983768</v>
+        <v>0.1284245370778669</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0491097123867542</v>
+        <v>0.03098412258835734</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4463947951.273717</v>
+        <v>4017462693.427817</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08220275481179995</v>
+        <v>0.08328232255754725</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02895244891984297</v>
+        <v>0.03115070907581352</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4600765133.331723</v>
+        <v>3830838890.80718</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1528473425328526</v>
+        <v>0.1159408712207904</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02313457265584937</v>
+        <v>0.0346622520514608</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5839136785.517593</v>
+        <v>5218647189.758117</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1253266475586991</v>
+        <v>0.1263763002036344</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02401730992718855</v>
+        <v>0.03113622594930206</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5722780503.571269</v>
+        <v>3450186214.99711</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1396262099813445</v>
+        <v>0.1618718899947021</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04205399424199477</v>
+        <v>0.03460898105421571</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2985966692.17517</v>
+        <v>3429747172.345514</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06854639660176322</v>
+        <v>0.09547707772130382</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04544861648526398</v>
+        <v>0.0413500988407007</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3763067072.410483</v>
+        <v>4376971894.065914</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1298302162021072</v>
+        <v>0.1115637413841843</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05089792501863824</v>
+        <v>0.03777255867869551</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1790351589.229846</v>
+        <v>1504305743.847147</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1566418178898704</v>
+        <v>0.1585172047898919</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03911303927505346</v>
+        <v>0.04375465451949624</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2415398183.666742</v>
+        <v>2328776101.999017</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06779837690838721</v>
+        <v>0.07280034722850164</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04273663048447535</v>
+        <v>0.03109765501405737</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3714942764.702957</v>
+        <v>5590126568.242563</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1624102411118997</v>
+        <v>0.1626311018243221</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03151346740524365</v>
+        <v>0.03332120652246949</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1680287571.738711</v>
+        <v>2089533747.904583</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08192654264551469</v>
+        <v>0.09701833004528394</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04045603929185716</v>
+        <v>0.04800866298607981</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3011487913.662261</v>
+        <v>3071985335.962667</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09066968640911006</v>
+        <v>0.09642497389888856</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03550992692808243</v>
+        <v>0.04846312417757362</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3060281647.371345</v>
+        <v>3286957790.669333</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1547433856276844</v>
+        <v>0.1132256785530039</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02823760178404923</v>
+        <v>0.02940587767928131</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2017274224.628658</v>
+        <v>2169866538.041491</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1536355946696208</v>
+        <v>0.1120052993609026</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0370042715620716</v>
+        <v>0.03316657690975586</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4016116696.234221</v>
+        <v>4406359995.798421</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1194618467837625</v>
+        <v>0.1013784571624418</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02473299125509925</v>
+        <v>0.02869165952915236</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2222080080.945341</v>
+        <v>1691364510.341752</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1332375627021232</v>
+        <v>0.1202661873378895</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02344465483228361</v>
+        <v>0.03113766119390332</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3089787496.718012</v>
+        <v>3844927542.116219</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09513820940400712</v>
+        <v>0.09092362538765249</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05320071472925147</v>
+        <v>0.04166028145804864</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1691207039.101365</v>
+        <v>1590538277.652188</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1600457950735173</v>
+        <v>0.1599845306271476</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04047298623306832</v>
+        <v>0.02741244623727546</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4314977123.865589</v>
+        <v>5097470316.971618</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06792028926657269</v>
+        <v>0.1091428114420349</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02381496581505149</v>
+        <v>0.0334839904026478</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4282587877.35978</v>
+        <v>4636916843.387629</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1185066035294986</v>
+        <v>0.09384485062427013</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02965028461479706</v>
+        <v>0.02258030082893639</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5134408188.12713</v>
+        <v>5116644683.795223</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2021011464782098</v>
+        <v>0.185222240496726</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02434824959301561</v>
+        <v>0.0290593050399307</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1876062565.234003</v>
+        <v>2159167762.807833</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1334937542213033</v>
+        <v>0.1003492098659448</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03991539925577276</v>
+        <v>0.04049196899248479</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1921556276.69487</v>
+        <v>1830074724.086391</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07300149187007417</v>
+        <v>0.1203765607637621</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03534637023510216</v>
+        <v>0.03734909796420935</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3570288287.855975</v>
+        <v>2519369292.687722</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1468100255863929</v>
+        <v>0.118851410505716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.047612210077594</v>
+        <v>0.03992345479200275</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2310224368.251258</v>
+        <v>2199468130.839434</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1178590472527905</v>
+        <v>0.114867089014873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02394458040284706</v>
+        <v>0.01778708659297362</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1034954047.819984</v>
+        <v>1349068366.652926</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1783349391850033</v>
+        <v>0.126449318361716</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03013901765542615</v>
+        <v>0.03002873929183822</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3685518397.62987</v>
+        <v>2335825042.152749</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1101320728729702</v>
+        <v>0.1624426731636439</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03458032649658629</v>
+        <v>0.02414825166064195</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3417296296.048712</v>
+        <v>3477147650.408732</v>
       </c>
       <c r="F89" t="n">
-        <v>0.147656276849389</v>
+        <v>0.1485372888688005</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03051270467903939</v>
+        <v>0.04138219367022083</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1362881344.309674</v>
+        <v>1791332017.372106</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1026781542816737</v>
+        <v>0.09157694036112485</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04445757593468577</v>
+        <v>0.05463559842302873</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1400232555.332175</v>
+        <v>1585489096.072645</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1888641929071005</v>
+        <v>0.1661633477310533</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04153871116608144</v>
+        <v>0.05472598259423474</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2657293843.099239</v>
+        <v>1941267205.811388</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1059506419730566</v>
+        <v>0.08179379433720604</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04595959538588005</v>
+        <v>0.03156634281349948</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3931241014.077412</v>
+        <v>3728142233.99965</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09132817894574605</v>
+        <v>0.1208585409412556</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05331492411748136</v>
+        <v>0.04568840675872205</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1793655254.424194</v>
+        <v>2018925405.188338</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1414929531936173</v>
+        <v>0.1557766041519045</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03596251308259128</v>
+        <v>0.03826131748887299</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2129950901.779517</v>
+        <v>2798404063.939711</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1212074783759778</v>
+        <v>0.1318387256952472</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04946666381588712</v>
+        <v>0.04565673333297078</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1850981062.930324</v>
+        <v>1482130126.093569</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1254856049282651</v>
+        <v>0.1151910276368251</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04597610902518359</v>
+        <v>0.03502062487935993</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3473898023.398901</v>
+        <v>3725133493.127756</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1437442741163873</v>
+        <v>0.1158770268270075</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01994474049521628</v>
+        <v>0.02904402924236715</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2409501146.361977</v>
+        <v>2889722423.383561</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1037845375915325</v>
+        <v>0.1078353799016487</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02094667222193976</v>
+        <v>0.02823333799080336</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2975526141.498098</v>
+        <v>3019646820.33459</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09215260710948597</v>
+        <v>0.1449732334879117</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03179791563287913</v>
+        <v>0.02198696853903787</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4241188888.127597</v>
+        <v>4776543491.102093</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1742300251744896</v>
+        <v>0.119724582209068</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01903986830269691</v>
+        <v>0.017138215613918</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2973562700.636889</v>
+        <v>3152820658.075595</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1364311302561331</v>
+        <v>0.1340349428589649</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05040628854095205</v>
+        <v>0.0400237719868939</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_256.xlsx
+++ b/output/fit_clients/fit_round_256.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1523197439.850109</v>
+        <v>1748528494.997834</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1006381345737618</v>
+        <v>0.1031184874102981</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04034227053719133</v>
+        <v>0.03135712312368333</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1976982910.823274</v>
+        <v>2140788382.403882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1197166503445474</v>
+        <v>0.1807239981881477</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03976923173427888</v>
+        <v>0.04459603336281592</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3247781638.206911</v>
+        <v>4184880171.973457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.151733971506841</v>
+        <v>0.1403138749091474</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02786691313553861</v>
+        <v>0.03496907645549904</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>138</v>
+      </c>
+      <c r="J4" t="n">
+        <v>255</v>
+      </c>
+      <c r="K4" t="n">
+        <v>97.44865820052216</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3203541245.968579</v>
+        <v>3644385673.545594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08255500626203732</v>
+        <v>0.103827696231758</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03939426207000377</v>
+        <v>0.03153626498254326</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>105</v>
+      </c>
+      <c r="J5" t="n">
+        <v>256</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108.5158803902966</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1960761539.168836</v>
+        <v>2114542504.027354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1056129510307994</v>
+        <v>0.1378642792648605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03699477061567532</v>
+        <v>0.04867063849351486</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2274771856.750684</v>
+        <v>2921011991.538378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08587184191069394</v>
+        <v>0.07122438960098687</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04273984797989896</v>
+        <v>0.03580000328785177</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +715,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3756938597.198489</v>
+        <v>2780333197.679248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1906568589140722</v>
+        <v>0.2094361118257341</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02627402787308397</v>
+        <v>0.02702929316413114</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57.38707092007259</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1571589729.359965</v>
+        <v>1905646063.545525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1430622721354736</v>
+        <v>0.1763868974595045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03018820601057974</v>
+        <v>0.03220034106461654</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5924800584.259225</v>
+        <v>4743592726.539361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2093484497946038</v>
+        <v>0.151989139331646</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04554112508290879</v>
+        <v>0.04460981380460137</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>231</v>
+      </c>
+      <c r="J10" t="n">
+        <v>256</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3021443959.579718</v>
+        <v>4122437277.69657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1223186937980732</v>
+        <v>0.1201617803967212</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04135898812136826</v>
+        <v>0.03637419719475222</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>256</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2945355784.513993</v>
+        <v>2565962581.781579</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1470990512149006</v>
+        <v>0.1394440734151867</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04557885191189971</v>
+        <v>0.04100476926994989</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4248373999.95732</v>
+        <v>3781388660.11553</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08964806043735213</v>
+        <v>0.08419635980089961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02516723707229366</v>
+        <v>0.02593817467429259</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>130</v>
+      </c>
+      <c r="J13" t="n">
+        <v>255</v>
+      </c>
+      <c r="K13" t="n">
+        <v>101.166144263266</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3329041602.066151</v>
+        <v>3140462029.161372</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1332686170098419</v>
+        <v>0.1161570019638381</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0389930635291731</v>
+        <v>0.03482442280049348</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1295606510.515185</v>
+        <v>1624879411.587406</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08028021091329481</v>
+        <v>0.09528731094754028</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04594326203527265</v>
+        <v>0.03410808809699334</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2303497838.768498</v>
+        <v>2839837474.440516</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07052860583436742</v>
+        <v>0.0986634666928997</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04275013993201768</v>
+        <v>0.04887779896659046</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4807569086.320544</v>
+        <v>4644464954.510056</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1640802681702857</v>
+        <v>0.172347272841204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04545723543081539</v>
+        <v>0.04483662864669099</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>122</v>
+      </c>
+      <c r="J17" t="n">
+        <v>256</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3184524870.501519</v>
+        <v>2939957568.479367</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1119411887599365</v>
+        <v>0.1766102529834303</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02634766221396366</v>
+        <v>0.03452977069015093</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>829785096.1868325</v>
+        <v>1194599073.150562</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1442711037509487</v>
+        <v>0.1156672256816889</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02497300179774571</v>
+        <v>0.01685481143167234</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2682702433.573941</v>
+        <v>2371468777.840742</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1613015674939706</v>
+        <v>0.1025786826131229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02656332463517898</v>
+        <v>0.024287434923582</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2296602456.939267</v>
+        <v>1876983095.547307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09060652247752336</v>
+        <v>0.08718337611276479</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03018674681241568</v>
+        <v>0.03685202905060534</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2988791961.698089</v>
+        <v>3591553057.649148</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0941032917794148</v>
+        <v>0.0904497965579916</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04579769729866178</v>
+        <v>0.04243653530830312</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>66</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1365511169.583275</v>
+        <v>1349798368.672743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1334856532263212</v>
+        <v>0.1790714588120942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0492536252264455</v>
+        <v>0.04439668079185415</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3057640201.196944</v>
+        <v>3739332316.992844</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1085223729372329</v>
+        <v>0.1289707687847085</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02649736367697604</v>
+        <v>0.02406662595240702</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>76</v>
+      </c>
+      <c r="J24" t="n">
+        <v>255</v>
+      </c>
+      <c r="K24" t="n">
+        <v>93.70587870042507</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1078084448.533837</v>
+        <v>1446095593.13642</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09734351672389001</v>
+        <v>0.080917603266508</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02563773125167542</v>
+        <v>0.02730974504219073</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1417803888.243664</v>
+        <v>1299037088.397339</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1039348805919313</v>
+        <v>0.1035132132479757</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03869699216897541</v>
+        <v>0.02473309041921603</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3608142956.322949</v>
+        <v>3640066336.368694</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1537644416440143</v>
+        <v>0.146413574768635</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02115963306556937</v>
+        <v>0.02617222142130713</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>104</v>
+      </c>
+      <c r="J27" t="n">
+        <v>255</v>
+      </c>
+      <c r="K27" t="n">
+        <v>82.02015154413799</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3438738350.763803</v>
+        <v>2707560848.487051</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1160146871211791</v>
+        <v>0.1279376672560801</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03694194400242056</v>
+        <v>0.03966754173999099</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>51</v>
+      </c>
+      <c r="J28" t="n">
+        <v>254</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4501470295.027761</v>
+        <v>4950291801.642173</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09259593631873812</v>
+        <v>0.1403844319789131</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03467387134171371</v>
+        <v>0.04454416451070479</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>244</v>
+      </c>
+      <c r="J29" t="n">
+        <v>256</v>
+      </c>
+      <c r="K29" t="n">
+        <v>106.3827138543431</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2305286933.555928</v>
+        <v>2110158504.716863</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08719877265076822</v>
+        <v>0.1210806805055706</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02865901468179956</v>
+        <v>0.02890165022174726</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1055647075.570942</v>
+        <v>1453887876.971489</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08587473967237358</v>
+        <v>0.1066872784599097</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05218157421467694</v>
+        <v>0.03339858778860114</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1721896591.434604</v>
+        <v>1539088822.351069</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1194767587221402</v>
+        <v>0.120842116664962</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02590340825550307</v>
+        <v>0.03263709201166479</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2104136824.694905</v>
+        <v>2237405767.971985</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1330905614726275</v>
+        <v>0.202121906146563</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06025442952152626</v>
+        <v>0.0518286220406563</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1420572435.916016</v>
+        <v>1106382262.068779</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07452212655843102</v>
+        <v>0.08338899741231144</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02062051438901534</v>
+        <v>0.02438041468229707</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1304860417.62843</v>
+        <v>1264038157.87594</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1001219935048718</v>
+        <v>0.09852575208268054</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03568195482704484</v>
+        <v>0.0411056300306374</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2330624962.983047</v>
+        <v>2380125357.461898</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1413388722903848</v>
+        <v>0.1808849503630494</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02397963041485694</v>
+        <v>0.01816589550210787</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1880654891.884957</v>
+        <v>2111611303.097702</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1027609423587002</v>
+        <v>0.08297176181192814</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03558974102248541</v>
+        <v>0.03854948234649728</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2113899021.930836</v>
+        <v>1470572611.416784</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08465563211859468</v>
+        <v>0.10244581651785</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03968768099239835</v>
+        <v>0.034159030331098</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1463711622.450948</v>
+        <v>1622952840.725085</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1839970135545626</v>
+        <v>0.1645866847445497</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03095160109797636</v>
+        <v>0.02265473643589033</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1100734739.023766</v>
+        <v>1593511987.467155</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1374375070514612</v>
+        <v>0.09965587804991788</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05970249809695339</v>
+        <v>0.04437783988050602</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2268075554.994244</v>
+        <v>2327802913.487864</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1167748669639226</v>
+        <v>0.1611709447251356</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0288026749722083</v>
+        <v>0.03783507803636434</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4357386771.151567</v>
+        <v>3521950502.641317</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1270089798382271</v>
+        <v>0.09643766189271628</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04191454303821491</v>
+        <v>0.03720867332908701</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>106</v>
+      </c>
+      <c r="J42" t="n">
+        <v>254</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2751597722.549038</v>
+        <v>3051702519.827389</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1772940242076022</v>
+        <v>0.1989724927422965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02589306493753951</v>
+        <v>0.02342193354960488</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2040153143.463242</v>
+        <v>1944277917.94856</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1007290021105668</v>
+        <v>0.07812683373955767</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03124637042411954</v>
+        <v>0.02761731928762374</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2328003469.091493</v>
+        <v>2055843297.01751</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1879497473744924</v>
+        <v>0.1397153764606553</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0513392687119959</v>
+        <v>0.04068124420456525</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5084212111.580399</v>
+        <v>4547001227.878892</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1536124348070499</v>
+        <v>0.1572496770112545</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05906917098607933</v>
+        <v>0.05526124383618562</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>148</v>
+      </c>
+      <c r="J46" t="n">
+        <v>256</v>
+      </c>
+      <c r="K46" t="n">
+        <v>101.8019279634976</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4272337757.189909</v>
+        <v>3784789600.382545</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1822049186372484</v>
+        <v>0.1327114208992289</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03765812813666206</v>
+        <v>0.03971823446784366</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>115</v>
+      </c>
+      <c r="J47" t="n">
+        <v>256</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3505913483.916797</v>
+        <v>4354035068.375237</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0852653665494869</v>
+        <v>0.07641514479399966</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03177263624422726</v>
+        <v>0.03123160774589056</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>126</v>
+      </c>
+      <c r="J48" t="n">
+        <v>256</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1696021753.179983</v>
+        <v>1686737035.620272</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1824838018018513</v>
+        <v>0.1783712079693384</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02700454829206609</v>
+        <v>0.03967004091178955</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3712520861.848805</v>
+        <v>3331463733.070407</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1605696654386587</v>
+        <v>0.1100020422670223</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04482024844536835</v>
+        <v>0.03717151833404078</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1500363248.565929</v>
+        <v>1375248643.328102</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1915849161340653</v>
+        <v>0.1466698732182096</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03399505367353742</v>
+        <v>0.0446129356701629</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3703474275.15071</v>
+        <v>5292254939.04089</v>
       </c>
       <c r="F52" t="n">
-        <v>0.116033150036713</v>
+        <v>0.1090791930556335</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03879789536050806</v>
+        <v>0.04455485894837003</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>164</v>
+      </c>
+      <c r="J52" t="n">
+        <v>255</v>
+      </c>
+      <c r="K52" t="n">
+        <v>97.37605297100878</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3282364664.173079</v>
+        <v>3686366842.480648</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1309655996302508</v>
+        <v>0.1336327046680952</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02493575682729246</v>
+        <v>0.02683570689947973</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>256</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3461260735.255618</v>
+        <v>3687219523.839193</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1090333739187608</v>
+        <v>0.1401802699952119</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04420607716579687</v>
+        <v>0.04621132670399807</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>135</v>
+      </c>
+      <c r="J54" t="n">
+        <v>255</v>
+      </c>
+      <c r="K54" t="n">
+        <v>96.05244155432419</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3181463469.832054</v>
+        <v>3807355038.961339</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1744073789846519</v>
+        <v>0.1742183295246072</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02015067654295871</v>
+        <v>0.02945378301455831</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>114</v>
+      </c>
+      <c r="J55" t="n">
+        <v>256</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1522513358.17668</v>
+        <v>1667942194.899331</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1099777335944089</v>
+        <v>0.1353902630247193</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0563184856690359</v>
+        <v>0.04517715977444163</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4289589678.781207</v>
+        <v>4145663657.955669</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1477429310834046</v>
+        <v>0.1222724101282971</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02509829583847746</v>
+        <v>0.02268935581386572</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>102</v>
+      </c>
+      <c r="J57" t="n">
+        <v>255</v>
+      </c>
+      <c r="K57" t="n">
+        <v>100.8573656621404</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775440300.694541</v>
+        <v>1491406676.499321</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1432810008158331</v>
+        <v>0.1819951669150022</v>
       </c>
       <c r="G58" t="n">
-        <v>0.033183237333694</v>
+        <v>0.02595827965094571</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4602123476.756734</v>
+        <v>4586929173.096928</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08007453314654747</v>
+        <v>0.1206700892974577</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03697622772924893</v>
+        <v>0.03996817753835049</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>123</v>
+      </c>
+      <c r="J59" t="n">
+        <v>256</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3705535221.822563</v>
+        <v>3018904005.921412</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1251470094801487</v>
+        <v>0.2003053352238876</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03119489922507539</v>
+        <v>0.03263906410099886</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2504464713.075933</v>
+        <v>2213487601.724313</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1108977551867613</v>
+        <v>0.1747841034836425</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02633429114260144</v>
+        <v>0.02949526474803735</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1358207762.325999</v>
+        <v>1423404033.82624</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1284245370778669</v>
+        <v>0.141133672576801</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03098412258835734</v>
+        <v>0.04417824071997222</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4017462693.427817</v>
+        <v>3709856078.182117</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08328232255754725</v>
+        <v>0.1010359070181369</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03115070907581352</v>
+        <v>0.03609539140130092</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>125</v>
+      </c>
+      <c r="J63" t="n">
+        <v>255</v>
+      </c>
+      <c r="K63" t="n">
+        <v>91.63897431626845</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3830838890.80718</v>
+        <v>4699259825.433088</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1159408712207904</v>
+        <v>0.1677442880798088</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0346622520514608</v>
+        <v>0.02810583925215321</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>126</v>
+      </c>
+      <c r="J64" t="n">
+        <v>255</v>
+      </c>
+      <c r="K64" t="n">
+        <v>97.88499721816447</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5218647189.758117</v>
+        <v>5074011154.374357</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1263763002036344</v>
+        <v>0.1125297448259084</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03113622594930206</v>
+        <v>0.02715710373936543</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>205</v>
+      </c>
+      <c r="J65" t="n">
+        <v>256</v>
+      </c>
+      <c r="K65" t="n">
+        <v>101.5567862511433</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3450186214.99711</v>
+        <v>5127239928.925863</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1618718899947021</v>
+        <v>0.1470800242220951</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03460898105421571</v>
+        <v>0.03670722323964164</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>126</v>
+      </c>
+      <c r="J66" t="n">
+        <v>256</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3429747172.345514</v>
+        <v>3443466866.83064</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09547707772130382</v>
+        <v>0.07042727961040082</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0413500988407007</v>
+        <v>0.04736004391356415</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4376971894.065914</v>
+        <v>3887523268.241168</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1115637413841843</v>
+        <v>0.1175419682836113</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03777255867869551</v>
+        <v>0.03229788539885269</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>130</v>
+      </c>
+      <c r="J68" t="n">
+        <v>256</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1504305743.847147</v>
+        <v>1950295054.100933</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585172047898919</v>
+        <v>0.1521332205795585</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04375465451949624</v>
+        <v>0.05293844641730756</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2328776101.999017</v>
+        <v>2753460270.535563</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07280034722850164</v>
+        <v>0.08650835287267587</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03109765501405737</v>
+        <v>0.03579314595083058</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5590126568.242563</v>
+        <v>4340012492.852762</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1626311018243221</v>
+        <v>0.1554372149995178</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03332120652246949</v>
+        <v>0.02371640669378015</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>194</v>
+      </c>
+      <c r="J71" t="n">
+        <v>255</v>
+      </c>
+      <c r="K71" t="n">
+        <v>99.90007579170161</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2089533747.904583</v>
+        <v>1898759139.858173</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09701833004528394</v>
+        <v>0.09148628741862747</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04800866298607981</v>
+        <v>0.03419267650452629</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3071985335.962667</v>
+        <v>3187338780.053721</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09642497389888856</v>
+        <v>0.09155484981686456</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04846312417757362</v>
+        <v>0.04855534270869864</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3286957790.669333</v>
+        <v>2833389024.168085</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1132256785530039</v>
+        <v>0.1538847655988997</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02940587767928131</v>
+        <v>0.03138627934197295</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2169866538.041491</v>
+        <v>2014702507.291131</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1120052993609026</v>
+        <v>0.1081329198633173</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03316657690975586</v>
+        <v>0.02946968295353722</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4406359995.798421</v>
+        <v>5126222958.305217</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1013784571624418</v>
+        <v>0.09528494389611707</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02869165952915236</v>
+        <v>0.03105289227110115</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>119</v>
+      </c>
+      <c r="J76" t="n">
+        <v>256</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1691364510.341752</v>
+        <v>2192808436.28594</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1202661873378895</v>
+        <v>0.1158459319807339</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03113766119390332</v>
+        <v>0.02744377311555177</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3844927542.116219</v>
+        <v>3861647509.287327</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09092362538765249</v>
+        <v>0.08400321565876077</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04166028145804864</v>
+        <v>0.04504707683910598</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>128</v>
+      </c>
+      <c r="J78" t="n">
+        <v>256</v>
+      </c>
+      <c r="K78" t="n">
+        <v>101.1756274719609</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1590538277.652188</v>
+        <v>1799175452.540596</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1599845306271476</v>
+        <v>0.151843402886238</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02741244623727546</v>
+        <v>0.03293080389510764</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5097470316.971618</v>
+        <v>4100211194.146554</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1091428114420349</v>
+        <v>0.0699151408322468</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0334839904026478</v>
+        <v>0.03863055072853361</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>125</v>
+      </c>
+      <c r="J80" t="n">
+        <v>255</v>
+      </c>
+      <c r="K80" t="n">
+        <v>72.98432389320776</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4636916843.387629</v>
+        <v>3298281526.568749</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09384485062427013</v>
+        <v>0.1334196058194829</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02258030082893639</v>
+        <v>0.03231577918563599</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>117</v>
+      </c>
+      <c r="J81" t="n">
+        <v>255</v>
+      </c>
+      <c r="K81" t="n">
+        <v>67.22272981633188</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5116644683.795223</v>
+        <v>3522305615.274764</v>
       </c>
       <c r="F82" t="n">
-        <v>0.185222240496726</v>
+        <v>0.2047189634117117</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0290593050399307</v>
+        <v>0.02683554852365807</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>194</v>
+      </c>
+      <c r="J82" t="n">
+        <v>255</v>
+      </c>
+      <c r="K82" t="n">
+        <v>86.38519468506699</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2159167762.807833</v>
+        <v>2172418925.635846</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1003492098659448</v>
+        <v>0.1087814927680299</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04049196899248479</v>
+        <v>0.0381609511791022</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1830074724.086391</v>
+        <v>2315585203.639965</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1203765607637621</v>
+        <v>0.0741080163697825</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03734909796420935</v>
+        <v>0.03560742153350872</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2519369292.687722</v>
+        <v>2761986377.24006</v>
       </c>
       <c r="F85" t="n">
-        <v>0.118851410505716</v>
+        <v>0.1243453118307761</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03992345479200275</v>
+        <v>0.05022997197412005</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2199468130.839434</v>
+        <v>2048965866.27278</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114867089014873</v>
+        <v>0.1696365359335306</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01778708659297362</v>
+        <v>0.02568417234605066</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1349068366.652926</v>
+        <v>1309701703.518871</v>
       </c>
       <c r="F87" t="n">
-        <v>0.126449318361716</v>
+        <v>0.1548528492503775</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03002873929183822</v>
+        <v>0.04078984541693284</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3543,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2335825042.152749</v>
+        <v>3449810594.111248</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1624426731636439</v>
+        <v>0.1205069154495472</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02414825166064195</v>
+        <v>0.03858600572332661</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="n">
+        <v>88.82921257850839</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3477147650.408732</v>
+        <v>3048843699.693883</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1485372888688005</v>
+        <v>0.133355751630444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04138219367022083</v>
+        <v>0.03052882043120357</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1791332017.372106</v>
+        <v>1743448653.017554</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09157694036112485</v>
+        <v>0.1091706802059874</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05463559842302873</v>
+        <v>0.04361957809929322</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1585489096.072645</v>
+        <v>2061085193.98114</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1661633477310533</v>
+        <v>0.1701894106793778</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05472598259423474</v>
+        <v>0.05107631317947414</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1941267205.811388</v>
+        <v>2965081271.407565</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08179379433720604</v>
+        <v>0.08753383807872937</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03156634281349948</v>
+        <v>0.03572426236724203</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3728142233.99965</v>
+        <v>3226490104.997656</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1208585409412556</v>
+        <v>0.09006863048454623</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04568840675872205</v>
+        <v>0.03928948111769837</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>113</v>
+      </c>
+      <c r="J93" t="n">
+        <v>254</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2018925405.188338</v>
+        <v>1560523575.853395</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1557766041519045</v>
+        <v>0.1530559608354606</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03826131748887299</v>
+        <v>0.03070318687047555</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2798404063.939711</v>
+        <v>3115898670.931531</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1318387256952472</v>
+        <v>0.112041620462918</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04565673333297078</v>
+        <v>0.04823858540109596</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1482130126.093569</v>
+        <v>2381153426.497255</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1151910276368251</v>
+        <v>0.1202230175171471</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03502062487935993</v>
+        <v>0.04616917568168177</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3725133493.127756</v>
+        <v>3597845420.005118</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1158770268270075</v>
+        <v>0.1067118560657774</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02904402924236715</v>
+        <v>0.02228954953063113</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>125</v>
+      </c>
+      <c r="J97" t="n">
+        <v>256</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2889722423.383561</v>
+        <v>3889142590.207588</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1078353799016487</v>
+        <v>0.1092105977823132</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02823333799080336</v>
+        <v>0.02232246760939977</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>62</v>
+      </c>
+      <c r="J98" t="n">
+        <v>256</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3019646820.33459</v>
+        <v>2575326012.356019</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1449732334879117</v>
+        <v>0.124051056246519</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02198696853903787</v>
+        <v>0.02928616080553499</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4776543491.102093</v>
+        <v>4121513555.245431</v>
       </c>
       <c r="F100" t="n">
-        <v>0.119724582209068</v>
+        <v>0.1475006532331927</v>
       </c>
       <c r="G100" t="n">
-        <v>0.017138215613918</v>
+        <v>0.02561710091809859</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>107</v>
+      </c>
+      <c r="J100" t="n">
+        <v>256</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3152820658.075595</v>
+        <v>3147936176.896005</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1340349428589649</v>
+        <v>0.1738796639834473</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0400237719868939</v>
+        <v>0.0393740185371516</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
